--- a/excel_files/it-outsourcing-services__meta=eyJidXNpbmVzcyI6ICJJVCBPdXRzb3VyY2luZyBTZXJ2aWNlcyIsICJjaXRpZXMiOiBbIkJvdWxkZXIiLCAiRXVnZW5lIiwgIlNhbnRhIENydXoiLCAiSXJ2aW5lIl19.xlsx
+++ b/excel_files/it-outsourcing-services__meta=eyJidXNpbmVzcyI6ICJJVCBPdXRzb3VyY2luZyBTZXJ2aWNlcyIsICJjaXRpZXMiOiBbIkJvdWxkZXIiLCAiRXVnZW5lIiwgIlNhbnRhIENydXoiLCAiSXJ2aW5lIl19.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J27" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J31" headerRowCount="1">
   <autoFilter ref="A1:J1"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Company Name"/>
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,546 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kelley Create</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=L&amp;ai=DChsSEwiwn-3IhduRAxXGEoMDHTOnDKEYACICCAEQABoCc2Y&amp;co=1&amp;gclid=EAIaIQobChMIsJ_tyIXbkQMVxhKDAx0zpwyhEBAYASAAEgJlifD_BwE&amp;cid=CAAS0gHkaE_s7z9YtnPlEClCcNdje_uNuOlI5luTgdxj1kYrh_5hux0TJbMQlC0f9t-euNV5IV0zZmzO9hLXJgkZULgQJ3KSZLPYY3zw8fIL5fu8GANpv-Z6qmNS6mRaaaxOb7QPlqYzBdPuU3j41l8REe6zahVbeFafwP4dPIrcdGbzkd7b13qUwfV62ERNEAuS7u9uQd15SlSeaL-Wbgv1BdjoG9YkJuzHTDxQHLe_EsoCTdGkM7WzIqVoMsTmaDaMY45On4ZWKDqmnVsDpGATXTlh6bY&amp;cce=2&amp;sig=AOD64_0Uju7eymblqrvKdNdiB5SwUXPLZw&amp;q=&amp;ctype=99&amp;ved=2ahUKEwjrtOjIhduRAxWE4jgGHQP_GnMQhKwBegQIJxAQ&amp;adurl=</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hr@kelleycreate.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USWired: IT Support &amp; IT Services in San Jose &amp; San Francisco Bay Area</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=L&amp;ai=DChsSEwishbXLhduRAxXbDYMDHcOzM6cYACICCAEQARoCc2Y&amp;co=1&amp;gclid=EAIaIQobChMIrIW1y4XbkQMV2w2DAx3DszOnEBAYASAAEgJSkPD_BwE&amp;cid=CAAS0gHkaNwTwt4KEF-a9I_Xa9PGhKRi_YGrKFjn-tKfgJza3PiZ41YTPtZVU14kLTM4i19Ey7TaKJuX7Aw9zsYfsQqNFUbw5JvOpJRUiwWgz-fa-S1HL1BhKlru9xt64OKiaAq03Xn2anmTdfDgkcMfJ-qP_fAu7wE5PUQxRZ5qsjaFNmJv8240y6OugvjFlVIRu8xRF8ZY_Ce7kvAM_Y0EKYu1CKbezELlwt70TvNmM-4P3VEfwmmwHBK7o82mi9Do_6Vq8PRzRB5yG8BSM49CCTYmn6s&amp;cce=2&amp;sig=AOD64_1W8iVK5gg-xbduktwnaQN6-Z2FPw&amp;q=&amp;ctype=99&amp;ved=2ahUKEwjX86_LhduRAxUlyzgGHbSkFKwQhKwBegQIIxAQ&amp;adurl=</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>hr@uswired.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ManpowerGroup Services India Pvt Ltd. | IT Outsourcing Services in Kolkata</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://www.manpowergroup.co.in/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>enquiry@manpowergroup.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>California Computer Options - Irvine Managed IT Services Company</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=L&amp;ai=DChsSEwiZuerNhduRAxVyqGYCHTd0LdoYACICCAEQABoCc20&amp;ae=2&amp;co=1&amp;gclid=EAIaIQobChMImbnqzYXbkQMVcqhmAh03dC3aEBAYASAAEgLXwPD_BwE&amp;cid=CAAS0gHkaJVVFfZ5MtqrUnkBhJzRAQy49dLzZDerI-nrzswIGHTfjNKeMzvBGWMEUU53QzbgNUFYDgKOXxh3AQjBsmghWGgpD2ZhCOiXyHghwBJjEpF8pMxt-m9pgKCuhWdRctPl0S-vlJX-fF4-I_8vCTEXkHJCrsDvoE_36fpKpptUpJCJ5g8X4MjlK6UCUZJ0t9KnEWRTyv4Ow0yWwvYcsI9gTujyZgOGwsZm8R1wv3DOAdeKIPeurF4bfUYV3cl-pXrAxfjIaPLpqP2Np0CFAqT7Uus&amp;cce=2&amp;sig=AOD64_0lkM2M4dMAhlg_2gz_U-GNPiXXvg&amp;q=&amp;ctype=99&amp;ved=2ahUKEwiMzeXNhduRAxUVxTgGHbAbF1gQhKwBegQIORAQ&amp;adurl=</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8888041677</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ito Solutions Managed IT Services - Irvine</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://itosupport.net/irvine-ca/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Technijian</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://technijian.com/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9493798500</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>California Computer Options - Irvine Managed IT Services Company</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://computeroptions.net/managed-it-services-irvine/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8888041677</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KDIT - Managed IT Services Orange County</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.kditservices.com/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9495183513</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Techifornia IT Services LLC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.techifornia.com/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ITSOPRO LLC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>http://itsopro.com/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Next IT Solutions</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://nxt-it.com/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LAN WAN Enterprise - IT Services In Orange County &amp; Irvine</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://lanwane.com/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8445269263</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Emplicity</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.emplicity.com/?utm_source=gmb&amp;utm_medium=local&amp;utm_campaign=irvine</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KaufmanIT, Inc. | Managed IT Support &amp; Cybersecurity</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://kaufmanit.com/?utm_source=GMB&amp;utm_medium=Organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OutSourced IT Solutions</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://www.socalnetconsulting.com/contact-us</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
